--- a/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:E4"/>
@@ -1097,47 +1097,25 @@
     </row>
     <row r="2" customFormat="1" s="1"/>
     <row r="3" customFormat="1" s="1"/>
-    <row r="4">
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>config.Tblanguage</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>config.Tbitem</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>item</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>language_Fixed.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>config.Tbcard_group</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>card_group</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>card_group_Fixed.xlsx</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>item_Fixed.xlsx</t>
         </is>
       </c>
     </row>

--- a/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
@@ -1097,6 +1097,50 @@
     </row>
     <row r="2" customFormat="1" s="1"/>
     <row r="3" customFormat="1" s="1"/>
+    <row r="4">
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>config.Tblanguage</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>language_Fixed.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbcard_group</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>card_group</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>card_group_Fixed.xlsx</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>

--- a/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
@@ -1097,50 +1097,6 @@
     </row>
     <row r="2" customFormat="1" s="1"/>
     <row r="3" customFormat="1" s="1"/>
-    <row r="4">
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>config.Tblanguage</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>language_Fixed.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>config.Tbcard_group</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>card_group</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>card_group_Fixed.xlsx</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>

--- a/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:E4"/>
@@ -1097,25 +1097,135 @@
     </row>
     <row r="2" customFormat="1" s="1"/>
     <row r="3" customFormat="1" s="1"/>
-    <row r="6">
-      <c r="B6" t="inlineStr">
+    <row r="24">
+      <c r="B24" s="0" t="inlineStr">
         <is>
           <t>config.Tbitem</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C24" s="0" t="inlineStr">
         <is>
           <t>item</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D24" s="0" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>item_Fixed.xlsx</t>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>item@item.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbsign_daily</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>sign_daily</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>sign_daily@sign.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>config.Tbtask</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>task</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>task@task.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>config.Tbtask_type</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>task_type</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>task_type@task.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>config.Tbtask_group</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>task_group</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>task_group@task.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>config.Tbtask_score</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>task_score</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>task_score@task.xlsx</t>
         </is>
       </c>
     </row>

--- a/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:E4"/>
@@ -1122,12 +1122,12 @@
     <row r="34">
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>config.Tbsign_daily</t>
+          <t>config.Tbmail</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
-          <t>sign_daily</t>
+          <t>mail</t>
         </is>
       </c>
       <c r="D34" s="0" t="inlineStr">
@@ -1137,93 +1137,137 @@
       </c>
       <c r="E34" s="0" t="inlineStr">
         <is>
-          <t>sign_daily@sign.xlsx</t>
+          <t>mail@mail.xlsx</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbsign_daily</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>sign_daily</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>sign_daily@sign.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbtag_func</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>tag_func</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>tag_func@tag.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
         <is>
           <t>config.Tbtask</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>task</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>task@task.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
+    <row r="65">
+      <c r="B65" t="inlineStr">
         <is>
           <t>config.Tbtask_type</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>task_type</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>task_type@task.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
+    <row r="66">
+      <c r="B66" t="inlineStr">
         <is>
           <t>config.Tbtask_group</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>task_group</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>task_group@task.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
+    <row r="67">
+      <c r="B67" t="inlineStr">
         <is>
           <t>config.Tbtask_score</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>task_score</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>task_score@task.xlsx</t>
         </is>

--- a/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/__tables__.xlsx
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:E4"/>
@@ -1100,12 +1100,12 @@
     <row r="24">
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>config.Tbitem</t>
+          <t>config.Tbconstant</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>constant</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
@@ -1115,19 +1115,19 @@
       </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>item@item.xlsx</t>
+          <t>constant@constant.xlsx</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>config.Tbmail</t>
+          <t>config.Tbitem</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
-          <t>mail</t>
+          <t>item</t>
         </is>
       </c>
       <c r="D34" s="0" t="inlineStr">
@@ -1137,19 +1137,19 @@
       </c>
       <c r="E34" s="0" t="inlineStr">
         <is>
-          <t>mail@mail.xlsx</t>
+          <t>item@item.xlsx</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>config.Tbsign_daily</t>
+          <t>config.Tbmail</t>
         </is>
       </c>
       <c r="C44" s="0" t="inlineStr">
         <is>
-          <t>sign_daily</t>
+          <t>mail</t>
         </is>
       </c>
       <c r="D44" s="0" t="inlineStr">
@@ -1159,19 +1159,19 @@
       </c>
       <c r="E44" s="0" t="inlineStr">
         <is>
-          <t>sign_daily@sign.xlsx</t>
+          <t>mail@mail.xlsx</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>config.Tbtag_func</t>
+          <t>config.Tbsign_daily</t>
         </is>
       </c>
       <c r="C54" s="0" t="inlineStr">
         <is>
-          <t>tag_func</t>
+          <t>sign_daily</t>
         </is>
       </c>
       <c r="D54" s="0" t="inlineStr">
@@ -1181,93 +1181,142 @@
       </c>
       <c r="E54" s="0" t="inlineStr">
         <is>
-          <t>tag_func@tag.xlsx</t>
+          <t>sign_daily@sign.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbsign_acc7</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>sign_acc7</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>sign_acc7@sign.xlsx</t>
+        </is>
+      </c>
+      <c r="G55" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>config.Tbtag_func</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>tag_func</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t>tag_func@tag.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
         <is>
           <t>config.Tbtask</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>task</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>task@task.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="B65" t="inlineStr">
+    <row r="75">
+      <c r="B75" t="inlineStr">
         <is>
           <t>config.Tbtask_type</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>task_type</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>task_type@task.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="B66" t="inlineStr">
+    <row r="76">
+      <c r="B76" t="inlineStr">
         <is>
           <t>config.Tbtask_group</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>task_group</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>task_group@task.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="B67" t="inlineStr">
+    <row r="77">
+      <c r="B77" t="inlineStr">
         <is>
           <t>config.Tbtask_score</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>task_score</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>task_score@task.xlsx</t>
         </is>
